--- a/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H2">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J2">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N2">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O2">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P2">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q2">
-        <v>737.9393605452163</v>
+        <v>760.3023804731225</v>
       </c>
       <c r="R2">
-        <v>737.9393605452163</v>
+        <v>6842.721424258104</v>
       </c>
       <c r="S2">
-        <v>0.2059605747973116</v>
+        <v>0.194267959518676</v>
       </c>
       <c r="T2">
-        <v>0.2059605747973116</v>
+        <v>0.194267959518676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H3">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J3">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N3">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P3">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q3">
-        <v>41.26992702861157</v>
+        <v>45.73659986188833</v>
       </c>
       <c r="R3">
-        <v>41.26992702861157</v>
+        <v>411.6293987569949</v>
       </c>
       <c r="S3">
-        <v>0.01151853166685113</v>
+        <v>0.01168634501047087</v>
       </c>
       <c r="T3">
-        <v>0.01151853166685113</v>
+        <v>0.01168634501047087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H4">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J4">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N4">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q4">
-        <v>23.58847399518098</v>
+        <v>29.74824463091633</v>
       </c>
       <c r="R4">
-        <v>23.58847399518098</v>
+        <v>267.734201678247</v>
       </c>
       <c r="S4">
-        <v>0.006583597409751158</v>
+        <v>0.007601095211768604</v>
       </c>
       <c r="T4">
-        <v>0.006583597409751158</v>
+        <v>0.007601095211768605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3929572590698</v>
+        <v>16.506869</v>
       </c>
       <c r="H5">
-        <v>16.3929572590698</v>
+        <v>49.520607</v>
       </c>
       <c r="I5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="J5">
-        <v>0.2259896931357991</v>
+        <v>0.2165594803671733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N5">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q5">
-        <v>6.904239925978258</v>
+        <v>11.75700644067066</v>
       </c>
       <c r="R5">
-        <v>6.904239925978258</v>
+        <v>105.813057966036</v>
       </c>
       <c r="S5">
-        <v>0.001926989261885156</v>
+        <v>0.003004080626257836</v>
       </c>
       <c r="T5">
-        <v>0.001926989261885156</v>
+        <v>0.003004080626257836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H6">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J6">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N6">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O6">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P6">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q6">
-        <v>1115.281717606299</v>
+        <v>1141.430429073088</v>
       </c>
       <c r="R6">
-        <v>1115.281717606299</v>
+        <v>10272.87386165779</v>
       </c>
       <c r="S6">
-        <v>0.311277695567577</v>
+        <v>0.2916515403392118</v>
       </c>
       <c r="T6">
-        <v>0.311277695567577</v>
+        <v>0.2916515403392118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H7">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J7">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N7">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P7">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q7">
-        <v>62.3731400747477</v>
+        <v>68.66366349164001</v>
       </c>
       <c r="R7">
-        <v>62.3731400747477</v>
+        <v>617.97297142476</v>
       </c>
       <c r="S7">
-        <v>0.017408487022859</v>
+        <v>0.01754453246785469</v>
       </c>
       <c r="T7">
-        <v>0.017408487022859</v>
+        <v>0.01754453246785469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H8">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J8">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N8">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q8">
-        <v>35.65034635585748</v>
+        <v>44.660588346584</v>
       </c>
       <c r="R8">
-        <v>35.65034635585748</v>
+        <v>401.945295119256</v>
       </c>
       <c r="S8">
-        <v>0.009950093760753861</v>
+        <v>0.01141140892337525</v>
       </c>
       <c r="T8">
-        <v>0.009950093760753861</v>
+        <v>0.01141140892337525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.7754307549526</v>
+        <v>24.781512</v>
       </c>
       <c r="H9">
-        <v>24.7754307549526</v>
+        <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="J9">
-        <v>0.3415486239080627</v>
+        <v>0.3251174623990092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N9">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O9">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P9">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q9">
-        <v>10.43469555238502</v>
+        <v>17.650615400992</v>
       </c>
       <c r="R9">
-        <v>10.43469555238502</v>
+        <v>158.855538608928</v>
       </c>
       <c r="S9">
-        <v>0.002912347556872844</v>
+        <v>0.004509980668567497</v>
       </c>
       <c r="T9">
-        <v>0.002912347556872844</v>
+        <v>0.004509980668567497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H10">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J10">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N10">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O10">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P10">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q10">
-        <v>992.5747179184933</v>
+        <v>1136.728986816055</v>
       </c>
       <c r="R10">
-        <v>992.5747179184933</v>
+        <v>10230.5608813445</v>
       </c>
       <c r="S10">
-        <v>0.2770298893946125</v>
+        <v>0.2904502556694198</v>
       </c>
       <c r="T10">
-        <v>0.2770298893946125</v>
+        <v>0.2904502556694198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H11">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J11">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N11">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P11">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q11">
-        <v>55.51063999171371</v>
+        <v>68.38084445962555</v>
       </c>
       <c r="R11">
-        <v>55.51063999171371</v>
+        <v>615.42760013663</v>
       </c>
       <c r="S11">
-        <v>0.01549314744725484</v>
+        <v>0.01747226822447786</v>
       </c>
       <c r="T11">
-        <v>0.01549314744725484</v>
+        <v>0.01747226822447786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H12">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J12">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N12">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O12">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P12">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q12">
-        <v>31.72797681451205</v>
+        <v>44.47663567463089</v>
       </c>
       <c r="R12">
-        <v>31.72797681451205</v>
+        <v>400.289721071678</v>
       </c>
       <c r="S12">
-        <v>0.008855351389638028</v>
+        <v>0.01136440642654484</v>
       </c>
       <c r="T12">
-        <v>0.008855351389638028</v>
+        <v>0.01136440642654484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.0495555559597</v>
+        <v>24.67943933333333</v>
       </c>
       <c r="H13">
-        <v>22.0495555559597</v>
+        <v>74.038318</v>
       </c>
       <c r="I13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="J13">
-        <v>0.3039703096349584</v>
+        <v>0.3237783348120013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N13">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O13">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P13">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q13">
-        <v>9.286635682241211</v>
+        <v>17.57791421220711</v>
       </c>
       <c r="R13">
-        <v>9.286635682241211</v>
+        <v>158.201227909864</v>
       </c>
       <c r="S13">
-        <v>0.002591921403453077</v>
+        <v>0.004491404491558774</v>
       </c>
       <c r="T13">
-        <v>0.002591921403453077</v>
+        <v>0.004491404491558773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H14">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J14">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N14">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O14">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P14">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q14">
-        <v>419.5715324381219</v>
+        <v>472.362939567288</v>
       </c>
       <c r="R14">
-        <v>419.5715324381219</v>
+        <v>4251.266456105592</v>
       </c>
       <c r="S14">
-        <v>0.1171033808600449</v>
+        <v>0.1206953795999915</v>
       </c>
       <c r="T14">
-        <v>0.1171033808600449</v>
+        <v>0.1206953795999915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H15">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J15">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N15">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P15">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q15">
-        <v>23.46491792253847</v>
+        <v>28.415371714515</v>
       </c>
       <c r="R15">
-        <v>23.46491792253847</v>
+        <v>255.738345430635</v>
       </c>
       <c r="S15">
-        <v>0.006549112625361355</v>
+        <v>0.007260527421350978</v>
       </c>
       <c r="T15">
-        <v>0.006549112625361355</v>
+        <v>0.007260527421350978</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H16">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J16">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N16">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O16">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P16">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q16">
-        <v>13.4117418194397</v>
+        <v>18.482078501559</v>
       </c>
       <c r="R16">
-        <v>13.4117418194397</v>
+        <v>166.338706514031</v>
       </c>
       <c r="S16">
-        <v>0.003743248025317505</v>
+        <v>0.00472243119366214</v>
       </c>
       <c r="T16">
-        <v>0.003743248025317505</v>
+        <v>0.004722431193662141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.320573703100511</v>
+        <v>10.255437</v>
       </c>
       <c r="H17">
-        <v>9.320573703100511</v>
+        <v>30.766311</v>
       </c>
       <c r="I17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="J17">
-        <v>0.1284913733211799</v>
+        <v>0.1345447224218162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N17">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O17">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P17">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q17">
-        <v>3.925556327450654</v>
+        <v>7.304428166292</v>
       </c>
       <c r="R17">
-        <v>3.925556327450654</v>
+        <v>65.739853496628</v>
       </c>
       <c r="S17">
-        <v>0.001095631810456084</v>
+        <v>0.001866384206811588</v>
       </c>
       <c r="T17">
-        <v>0.001095631810456084</v>
+        <v>0.001866384206811588</v>
       </c>
     </row>
   </sheetData>
